--- a/Dados_turismo.xlsx
+++ b/Dados_turismo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duddatorres/Documents/Cdados/Projeto-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A469C3-1EEB-7A42-8928-A05A2CC5DA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6B10D-557E-7B40-B3F7-A3A9CD01CE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23920" windowHeight="13700" xr2:uid="{7235C236-1754-49C8-AB34-30ABB0094B16}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141946AA-2D41-4BC9-9F4D-32298FD327E2}">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
